--- a/SNAP_ClickBondSales.xlsx
+++ b/SNAP_ClickBondSales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -410,6 +410,90 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Lead Owner is User:dan.lupton@clickbond.com User:ian.newberry@clickbond.com User:ian.newberry@clickbond.com User:ian.newberry@clickbond.com User:kieth.regester@clickbond.com User:larry.biggin@clickbond.com User:manuel.faria@clickbond.com User:mark.egeberg@clickbond.com User:courtney.brown@clickbond.com User:moises.valle@clickbond.com User:richard.moore@clickbond.com .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Contact tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Contact Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Salutation, First Name, Last Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Salutation, First Name, Last Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Salutation, First Name, Last Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the   field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the  field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Contact with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Contact is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Contact tab,  and select a Contact </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Contact Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Contact name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Contact Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Contact tab,  and click on existing Contact to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Contact Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Contact is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Contact tab,  and select the existing  Contact to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Contact is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -493,8 +577,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J43" totalsRowShown="0">
-  <x:autoFilter ref="A1:J43"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J58" totalsRowShown="0">
+  <x:autoFilter ref="A1:J58"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -799,7 +883,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J43"/>
+  <x:dimension ref="A1:J58"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1703,6 +1787,320 @@
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
     </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s"/>
+      <x:c r="F44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="0" t="s"/>
+      <x:c r="B46" s="0" t="s"/>
+      <x:c r="C46" s="0" t="s"/>
+      <x:c r="D46" s="0" t="s"/>
+      <x:c r="E46" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s"/>
+      <x:c r="F48" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s"/>
+      <x:c r="F49" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:10">
+      <x:c r="A50" s="0" t="s"/>
+      <x:c r="B50" s="0" t="s"/>
+      <x:c r="C50" s="0" t="s"/>
+      <x:c r="D50" s="0" t="s"/>
+      <x:c r="E50" s="0" t="s"/>
+      <x:c r="F50" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:10">
+      <x:c r="A51" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s"/>
+      <x:c r="F51" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s"/>
+      <x:c r="J51" s="0" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:10">
+      <x:c r="A52" s="0" t="s"/>
+      <x:c r="B52" s="0" t="s"/>
+      <x:c r="C52" s="0" t="s"/>
+      <x:c r="D52" s="0" t="s"/>
+      <x:c r="E52" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s"/>
+      <x:c r="J52" s="0" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:10">
+      <x:c r="A53" s="0" t="s"/>
+      <x:c r="B53" s="0" t="s"/>
+      <x:c r="C53" s="0" t="s"/>
+      <x:c r="D53" s="0" t="s"/>
+      <x:c r="E53" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s"/>
+      <x:c r="J53" s="0" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:10">
+      <x:c r="A54" s="0" t="s"/>
+      <x:c r="B54" s="0" t="s"/>
+      <x:c r="C54" s="0" t="s"/>
+      <x:c r="D54" s="0" t="s"/>
+      <x:c r="E54" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s"/>
+      <x:c r="J54" s="0" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:10">
+      <x:c r="A55" s="0" t="s"/>
+      <x:c r="B55" s="0" t="s"/>
+      <x:c r="C55" s="0" t="s"/>
+      <x:c r="D55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s"/>
+      <x:c r="F55" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s"/>
+      <x:c r="J55" s="0" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:10">
+      <x:c r="A56" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s"/>
+      <x:c r="F56" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s"/>
+      <x:c r="J56" s="0" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:10">
+      <x:c r="A57" s="0" t="s"/>
+      <x:c r="B57" s="0" t="s"/>
+      <x:c r="C57" s="0" t="s"/>
+      <x:c r="D57" s="0" t="s"/>
+      <x:c r="E57" s="0" t="s"/>
+      <x:c r="F57" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s"/>
+      <x:c r="J57" s="0" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="0" t="s"/>
+      <x:c r="B58" s="0" t="s"/>
+      <x:c r="C58" s="0" t="s"/>
+      <x:c r="D58" s="0" t="s"/>
+      <x:c r="E58" s="0" t="s"/>
+      <x:c r="F58" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s"/>
+      <x:c r="J58" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
